--- a/medicine/Sexualité et sexologie/Maîtresse_Nikita/Maîtresse_Nikita.xlsx
+++ b/medicine/Sexualité et sexologie/Maîtresse_Nikita/Maîtresse_Nikita.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Ma%C3%AEtresse_Nikita</t>
+          <t>Maîtresse_Nikita</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Maîtresse Nikita, également connu sous le pseudonyme Damien, de son vrai nom Jean-François Poupel[1],[2], née en 1960[3],[4], est un travailleur du sexe et syndicaliste français, exerçant en tant que travesti dominatrice[pas clair].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Maîtresse Nikita, également connu sous le pseudonyme Damien, de son vrai nom Jean-François Poupel née en 1960 est un travailleur du sexe et syndicaliste français, exerçant en tant que travesti dominatrice[pas clair].
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Ma%C3%AEtresse_Nikita</t>
+          <t>Maîtresse_Nikita</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,15 +523,17 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Maîtresse Nikita commence à se prostituer à l'âge de 15 ans[4],[5], d'abord comme « masseur » pour une clientèle masculine. Il décide d'exercer en travesti après une « analyse de marché » qui le pousse à répondre au « fantasme de l'homme qui veut se faire dominer par un homme habillé en femme ». Il dit considérer que le passage à la prostitution était peut-être pour lui « une sorte de revanche » face à ceux qui lui avaient dit « qu'en tant que pédé [il] ne ferai[t] jamais rien de [sa] vie. » Parallèlement à ses activités travesties, il prodigue des séances en tant que « sexothérapeute »[1].
-Militant pour les droits des personnes prostituées[6], il est le cofondateur[7],[8], avec Thierry Schaffauser, de l'association Les Putes, un « groupe activiste non mixte, c'est-à-dire composé uniquement de putes, femmes et transpédégouines, dont le but est l'auto support et la lutte contre la putophobie[9]. » Il a également été le premier trésorier du syndicat du travail sexuel[10].
-Aujourd'hui, le groupe activiste Les Putes, dont les statuts n'ont jamais été déposés[11], a été dissout[12] et n'organise plus de Pute Pride.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Maîtresse Nikita commence à se prostituer à l'âge de 15 ans d'abord comme « masseur » pour une clientèle masculine. Il décide d'exercer en travesti après une « analyse de marché » qui le pousse à répondre au « fantasme de l'homme qui veut se faire dominer par un homme habillé en femme ». Il dit considérer que le passage à la prostitution était peut-être pour lui « une sorte de revanche » face à ceux qui lui avaient dit « qu'en tant que pédé [il] ne ferai[t] jamais rien de [sa] vie. » Parallèlement à ses activités travesties, il prodigue des séances en tant que « sexothérapeute ».
+Militant pour les droits des personnes prostituées, il est le cofondateur avec Thierry Schaffauser, de l'association Les Putes, un « groupe activiste non mixte, c'est-à-dire composé uniquement de putes, femmes et transpédégouines, dont le but est l'auto support et la lutte contre la putophobie. » Il a également été le premier trésorier du syndicat du travail sexuel.
+Aujourd'hui, le groupe activiste Les Putes, dont les statuts n'ont jamais été déposés, a été dissout et n'organise plus de Pute Pride.
 En 2006, Maîtresse Nikita, soutenu par Zezetta Star et Karima El Adorssa, tente d'ouvrir le département Act Up-Canal hystérique au sein de l'association Act Up-Paris, mais l'opération est annulée, Act Up souhaitant à cette époque prendre une orientation avant tout sociale. La même année, son association cherche à ouvrir une antenne algérienne, « Les Putes-Alger », mais l'opération est abandonnée en raison de l'hostilité des autorités locales.
-En 2007, il publie Fières d'être putes, avec Thierry Schaffauser[13],[14], qui fait débat[15].
-En 2008, Maîtresse Nikita témoigne dans le documentaire Les Travailleurs du sexe, réalisé par Jean-Michel Carré[16]. En 2009, il participe à l'élaboration des Assises de la prostitution qui se tiennent à Paris. 
-En 2010, il est élu trésorier du STRASS[17], jusqu'au renouvellement du bureau en 2011[18].
+En 2007, il publie Fières d'être putes, avec Thierry Schaffauser qui fait débat.
+En 2008, Maîtresse Nikita témoigne dans le documentaire Les Travailleurs du sexe, réalisé par Jean-Michel Carré. En 2009, il participe à l'élaboration des Assises de la prostitution qui se tiennent à Paris. 
+En 2010, il est élu trésorier du STRASS, jusqu'au renouvellement du bureau en 2011.
 </t>
         </is>
       </c>
@@ -530,7 +544,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Ma%C3%AEtresse_Nikita</t>
+          <t>Maîtresse_Nikita</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -548,7 +562,9 @@
           <t>Ouvrage</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Fières d'être putes, avec Thierry Schaffauser, éd. L'Altiplano, 2007</t>
         </is>
